--- a/Table/X 相机配置表.xlsx
+++ b/Table/X 相机配置表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\U3D\Unit3d_Test.git\trunk\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -16,34 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>场景id</t>
-  </si>
-  <si>
-    <t>场景模型</t>
-  </si>
-  <si>
-    <t>场景名字</t>
-  </si>
-  <si>
-    <t>BlackDoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登入场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机</t>
+    <t>相机id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +81,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,51 +378,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>102</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -436,12 +410,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -450,12 +424,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/X 相机配置表.xlsx
+++ b/Table/X 相机配置表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\U3D\Unit3d_Test.git\trunk\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\trunk\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC9796A-D2E8-49B6-881B-724774849C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="-1230" yWindow="2325" windowWidth="29040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>相机id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +58,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,11 +110,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -168,6 +225,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -203,6 +277,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -378,39 +469,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <pane xSplit="13" ySplit="20" topLeftCell="N138" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="2">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -424,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
